--- a/data/trans_orig/Q45B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q45B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95315E87-B8C2-44D2-84DD-B15C372F1632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F683794-E20B-49EE-BD25-A379737A9D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{61C8788C-D336-4FE0-B18C-6B6B98726B55}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{41A50D48-9582-4086-AD80-2153584711F0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="428">
   <si>
     <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -88,1249 +88,1237 @@
     <t>0,16%</t>
   </si>
   <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>Si alguna vez</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>No nunca</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2015 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>Si alguna vez</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>No nunca</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
   </si>
   <si>
     <t>97,73%</t>
   </si>
   <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2015 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
+    <t>97,32%</t>
   </si>
   <si>
     <t>98,07%</t>
@@ -1745,7 +1733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1985D7-ED7E-44EE-8310-B903AFCDB35B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154BE925-BC4D-4F7E-8589-DD9DC9146F3B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2093,10 +2081,10 @@
         <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -2108,10 +2096,10 @@
         <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,10 +2132,10 @@
         <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>127</v>
@@ -2156,13 +2144,13 @@
         <v>132296</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,13 +2165,13 @@
         <v>708659</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>480</v>
@@ -2192,13 +2180,13 @@
         <v>509382</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>1158</v>
@@ -2207,13 +2195,13 @@
         <v>1218041</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,7 +2257,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2281,13 +2269,13 @@
         <v>1986</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -2296,13 +2284,13 @@
         <v>3109</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -2311,13 +2299,13 @@
         <v>5094</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,13 +2320,13 @@
         <v>11336</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -2347,13 +2335,13 @@
         <v>44637</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -2362,13 +2350,13 @@
         <v>55973</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2371,13 @@
         <v>625347</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>614</v>
@@ -2398,13 +2386,13 @@
         <v>641999</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>1213</v>
@@ -2413,13 +2401,13 @@
         <v>1267345</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,7 +2463,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2490,10 +2478,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2502,13 +2490,13 @@
         <v>1953</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2517,13 +2505,13 @@
         <v>1953</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,13 +2526,13 @@
         <v>6314</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -2556,10 +2544,10 @@
         <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -2568,13 +2556,13 @@
         <v>29884</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2577,13 @@
         <v>512833</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H18" s="7">
         <v>477</v>
@@ -2604,13 +2592,13 @@
         <v>490119</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M18" s="7">
         <v>956</v>
@@ -2619,13 +2607,13 @@
         <v>1002952</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,7 +2684,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>115</v>
@@ -2711,7 +2699,7 @@
         <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>116</v>
@@ -2726,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>117</v>
@@ -2747,10 +2735,10 @@
         <v>118</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -2759,13 +2747,13 @@
         <v>8753</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -2774,13 +2762,13 @@
         <v>15055</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,7 +2905,7 @@
         <v>12</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>137</v>
@@ -2929,7 +2917,7 @@
         <v>1775</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
@@ -2953,10 +2941,10 @@
         <v>12</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2965,13 +2953,13 @@
         <v>7680</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2980,13 +2968,13 @@
         <v>7680</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,13 +2989,13 @@
         <v>500691</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>653</v>
@@ -3016,13 +3004,13 @@
         <v>669162</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M26" s="7">
         <v>1174</v>
@@ -3031,13 +3019,13 @@
         <v>1169853</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,13 +3093,13 @@
         <v>10392</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
@@ -3120,13 +3108,13 @@
         <v>12483</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M28" s="7">
         <v>22</v>
@@ -3135,13 +3123,13 @@
         <v>22874</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,13 +3144,13 @@
         <v>55303</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H29" s="7">
         <v>245</v>
@@ -3171,13 +3159,13 @@
         <v>251449</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M29" s="7">
         <v>299</v>
@@ -3186,13 +3174,13 @@
         <v>306752</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,13 +3195,13 @@
         <v>3210849</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H30" s="7">
         <v>3039</v>
@@ -3222,28 +3210,28 @@
         <v>3115266</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M30" s="7">
         <v>6190</v>
       </c>
       <c r="N30" s="7">
-        <v>6326114</v>
+        <v>6326115</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,7 +3273,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -3299,7 +3287,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3321,7 +3309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC7288D-3CF3-4B72-97DF-54EE09BDD5BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D869B1F3-089F-4C7D-83C8-C1E8881EFEC8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3338,7 +3326,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3445,13 +3433,13 @@
         <v>4159</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3460,13 +3448,13 @@
         <v>4785</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -3475,13 +3463,13 @@
         <v>8944</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3484,13 @@
         <v>12002</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -3511,13 +3499,13 @@
         <v>37762</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
@@ -3526,13 +3514,13 @@
         <v>49764</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3535,13 @@
         <v>436010</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="H6" s="7">
         <v>377</v>
@@ -3562,13 +3550,13 @@
         <v>385478</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M6" s="7">
         <v>805</v>
@@ -3577,13 +3565,13 @@
         <v>821489</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3639,13 @@
         <v>937</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -3666,13 +3654,13 @@
         <v>17055</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -3681,13 +3669,13 @@
         <v>17992</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3690,13 @@
         <v>22973</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H9" s="7">
         <v>90</v>
@@ -3717,13 +3705,13 @@
         <v>92369</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M9" s="7">
         <v>111</v>
@@ -3732,13 +3720,13 @@
         <v>115342</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3741,13 @@
         <v>660352</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>465</v>
@@ -3768,13 +3756,13 @@
         <v>499863</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>1108</v>
@@ -3783,13 +3771,13 @@
         <v>1160216</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,7 +3833,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3860,7 +3848,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>137</v>
@@ -3872,13 +3860,13 @@
         <v>4867</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -3890,10 +3878,10 @@
         <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>229</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3896,13 @@
         <v>19741</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -3923,13 +3911,13 @@
         <v>49584</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -3938,13 +3926,13 @@
         <v>69325</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,16 +3944,16 @@
         <v>631</v>
       </c>
       <c r="D14" s="7">
-        <v>661187</v>
+        <v>661186</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H14" s="7">
         <v>610</v>
@@ -3974,13 +3962,13 @@
         <v>652358</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
         <v>1241</v>
@@ -3989,13 +3977,13 @@
         <v>1313544</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,7 +3995,7 @@
         <v>650</v>
       </c>
       <c r="D15" s="7">
-        <v>680928</v>
+        <v>680927</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -4051,7 +4039,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4063,13 +4051,13 @@
         <v>1134</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>243</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4078,13 +4066,13 @@
         <v>6260</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4093,13 +4081,13 @@
         <v>7394</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4102,13 @@
         <v>15860</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -4129,13 +4117,13 @@
         <v>24804</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -4144,13 +4132,13 @@
         <v>40664</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4153,13 @@
         <v>593286</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H18" s="7">
         <v>510</v>
@@ -4180,13 +4168,13 @@
         <v>582884</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M18" s="7">
         <v>1039</v>
@@ -4195,13 +4183,13 @@
         <v>1176170</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4257,13 @@
         <v>986</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4287,10 +4275,10 @@
         <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4299,13 +4287,13 @@
         <v>986</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4308,13 @@
         <v>3309</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>117</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -4335,13 +4323,13 @@
         <v>8527</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>73</v>
+        <v>272</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -4350,13 +4338,13 @@
         <v>11836</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>276</v>
+        <v>97</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4359,13 @@
         <v>425134</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H22" s="7">
         <v>396</v>
@@ -4386,13 +4374,13 @@
         <v>437305</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M22" s="7">
         <v>785</v>
@@ -4401,13 +4389,13 @@
         <v>862439</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,10 +4466,10 @@
         <v>12</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4493,10 +4481,10 @@
         <v>12</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>288</v>
+        <v>46</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4508,7 +4496,7 @@
         <v>12</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>15</v>
@@ -4526,13 +4514,13 @@
         <v>4199</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>199</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -4541,13 +4529,13 @@
         <v>17086</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>120</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -4556,13 +4544,13 @@
         <v>21285</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>46</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>293</v>
+        <v>121</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +4565,13 @@
         <v>552381</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H26" s="7">
         <v>678</v>
@@ -4592,13 +4580,13 @@
         <v>723813</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>127</v>
+        <v>294</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
         <v>1175</v>
@@ -4607,13 +4595,13 @@
         <v>1276193</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,10 +4672,10 @@
         <v>43</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>303</v>
+        <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H28" s="7">
         <v>31</v>
@@ -4696,13 +4684,13 @@
         <v>32967</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M28" s="7">
         <v>38</v>
@@ -4711,13 +4699,13 @@
         <v>40183</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>308</v>
+        <v>99</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>42</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +4720,13 @@
         <v>78084</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H29" s="7">
         <v>218</v>
@@ -4747,13 +4735,13 @@
         <v>230131</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="M29" s="7">
         <v>291</v>
@@ -4762,13 +4750,13 @@
         <v>308216</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4771,13 @@
         <v>3328350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H30" s="7">
         <v>3036</v>
@@ -4798,13 +4786,13 @@
         <v>3281700</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>200</v>
+        <v>314</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M30" s="7">
         <v>6153</v>
@@ -4813,13 +4801,13 @@
         <v>6610051</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,7 +4863,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4897,7 +4885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79532BA7-806B-4E74-AAF6-49263EA063DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B725913C-A622-49EA-BC9F-BBD03541573D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4914,7 +4902,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5021,13 +5009,13 @@
         <v>1059</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>321</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5036,13 +5024,13 @@
         <v>1862</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>269</v>
+        <v>138</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5051,13 +5039,13 @@
         <v>2921</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>47</v>
+        <v>323</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,13 +5060,13 @@
         <v>4033</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>122</v>
+        <v>324</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -5087,13 +5075,13 @@
         <v>20519</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -5102,13 +5090,13 @@
         <v>24553</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,13 +5111,13 @@
         <v>411185</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H6" s="7">
         <v>381</v>
@@ -5138,13 +5126,13 @@
         <v>373373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M6" s="7">
         <v>766</v>
@@ -5153,13 +5141,13 @@
         <v>784559</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,10 +5218,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -5242,13 +5230,13 @@
         <v>6707</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>138</v>
+        <v>340</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -5257,13 +5245,13 @@
         <v>6707</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>308</v>
+        <v>99</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>346</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,13 +5266,13 @@
         <v>14770</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H9" s="7">
         <v>43</v>
@@ -5293,13 +5281,13 @@
         <v>41584</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M9" s="7">
         <v>58</v>
@@ -5308,13 +5296,13 @@
         <v>56354</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5317,13 @@
         <v>573583</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>350</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H10" s="7">
         <v>529</v>
@@ -5344,13 +5332,13 @@
         <v>515254</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M10" s="7">
         <v>1079</v>
@@ -5359,13 +5347,13 @@
         <v>1088836</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,7 +5409,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5436,10 +5424,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -5448,13 +5436,13 @@
         <v>3676</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>365</v>
+        <v>140</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>95</v>
+        <v>343</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -5463,13 +5451,13 @@
         <v>3676</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>288</v>
+        <v>46</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>367</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5472,13 @@
         <v>3969</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>368</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -5499,13 +5487,13 @@
         <v>21366</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -5514,13 +5502,13 @@
         <v>25335</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>364</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5523,13 @@
         <v>662194</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H14" s="7">
         <v>636</v>
@@ -5550,13 +5538,13 @@
         <v>633127</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>376</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>1267</v>
@@ -5565,13 +5553,13 @@
         <v>1295321</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,7 +5615,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5642,10 +5630,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5654,13 +5642,13 @@
         <v>4122</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>306</v>
+        <v>374</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>382</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5669,13 +5657,13 @@
         <v>4122</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,13 +5678,13 @@
         <v>4209</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -5705,13 +5693,13 @@
         <v>15829</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -5720,13 +5708,13 @@
         <v>20038</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +5729,13 @@
         <v>640756</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H18" s="7">
         <v>580</v>
@@ -5756,13 +5744,13 @@
         <v>624940</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>282</v>
+        <v>389</v>
       </c>
       <c r="M18" s="7">
         <v>1157</v>
@@ -5771,13 +5759,13 @@
         <v>1265696</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,10 +5836,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5860,13 +5848,13 @@
         <v>2323</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>269</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5881,7 +5869,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5899,10 +5887,10 @@
         <v>12</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -5911,13 +5899,13 @@
         <v>5752</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -5926,13 +5914,13 @@
         <v>5752</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>403</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5947,10 +5935,10 @@
         <v>475092</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>40</v>
@@ -5965,10 +5953,10 @@
         <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="M22" s="7">
         <v>847</v>
@@ -5977,13 +5965,13 @@
         <v>962863</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>287</v>
+        <v>400</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,7 +6045,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>205</v>
+        <v>69</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6069,7 +6057,7 @@
         <v>12</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>137</v>
@@ -6081,13 +6069,13 @@
         <v>959</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>47</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,7 +6096,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6117,13 +6105,13 @@
         <v>1016</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>205</v>
+        <v>405</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -6135,10 +6123,10 @@
         <v>137</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>143</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,13 +6141,13 @@
         <v>585056</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H26" s="7">
         <v>650</v>
@@ -6168,13 +6156,13 @@
         <v>772630</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M26" s="7">
         <v>1271</v>
@@ -6183,13 +6171,13 @@
         <v>1357686</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6257,13 +6245,13 @@
         <v>2018</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -6272,13 +6260,13 @@
         <v>18690</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>208</v>
+        <v>376</v>
       </c>
       <c r="M28" s="7">
         <v>21</v>
@@ -6287,13 +6275,13 @@
         <v>20708</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>418</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6308,13 +6296,13 @@
         <v>29878</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>420</v>
+        <v>154</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>71</v>
+        <v>414</v>
       </c>
       <c r="H29" s="7">
         <v>106</v>
@@ -6323,13 +6311,13 @@
         <v>106067</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>76</v>
+        <v>415</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="M29" s="7">
         <v>136</v>
@@ -6338,13 +6326,13 @@
         <v>135945</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>424</v>
+        <v>47</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,13 +6347,13 @@
         <v>3347865</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>284</v>
+        <v>420</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>426</v>
+        <v>145</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="H30" s="7">
         <v>3201</v>
@@ -6374,13 +6362,13 @@
         <v>3407095</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="M30" s="7">
         <v>6387</v>
@@ -6389,13 +6377,13 @@
         <v>6754960</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>197</v>
+        <v>425</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,7 +6439,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q45B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q45B-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F683794-E20B-49EE-BD25-A379737A9D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE14FF20-5330-4264-9B3A-761E022B3636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{41A50D48-9582-4086-AD80-2153584711F0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4EEF64F6-EEAC-4D2F-BC41-91E3296FC7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="420">
   <si>
     <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,86%</t>
+    <t>0,77%</t>
   </si>
   <si>
     <t>0,55%</t>
@@ -88,7 +88,7 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,47%</t>
+    <t>1,44%</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -109,25 +109,25 @@
     <t>1,05%</t>
   </si>
   <si>
-    <t>3,88%</t>
+    <t>3,72%</t>
   </si>
   <si>
     <t>11,88%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
   </si>
   <si>
     <t>6,85%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
   </si>
   <si>
     <t>No nunca</t>
@@ -136,1192 +136,1168 @@
     <t>97,74%</t>
   </si>
   <si>
-    <t>95,95%</t>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2016 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
   </si>
   <si>
     <t>98,82%</t>
   </si>
   <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>0,34%</t>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2015 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
   </si>
   <si>
     <t>98,03%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
   </si>
 </sst>
 </file>
@@ -1733,7 +1709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154BE925-BC4D-4F7E-8589-DD9DC9146F3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF699DA9-9B22-48CB-BC44-909CA6C49030}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2096,10 +2072,10 @@
         <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,10 +2278,10 @@
         <v>73</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,13 +2296,13 @@
         <v>11336</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -2335,13 +2311,13 @@
         <v>44637</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -2350,13 +2326,13 @@
         <v>55973</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2347,13 @@
         <v>625347</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>614</v>
@@ -2386,13 +2362,13 @@
         <v>641999</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>1213</v>
@@ -2401,13 +2377,13 @@
         <v>1267345</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,7 +2439,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2478,10 +2454,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2496,7 +2472,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2505,13 +2481,13 @@
         <v>1953</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2502,13 @@
         <v>6314</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -2541,13 +2517,13 @@
         <v>23570</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -2556,13 +2532,13 @@
         <v>29884</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,13 +2553,13 @@
         <v>512833</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H18" s="7">
         <v>477</v>
@@ -2592,13 +2568,13 @@
         <v>490119</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M18" s="7">
         <v>956</v>
@@ -2607,13 +2583,13 @@
         <v>1002952</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,7 +2645,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2684,10 +2660,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2699,10 +2675,10 @@
         <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2714,10 +2690,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2708,13 @@
         <v>6302</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -2747,13 +2723,13 @@
         <v>8753</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -2762,13 +2738,13 @@
         <v>15055</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,13 +2759,13 @@
         <v>380408</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H22" s="7">
         <v>388</v>
@@ -2798,13 +2774,13 @@
         <v>395233</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>774</v>
@@ -2813,13 +2789,13 @@
         <v>775641</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,7 +2851,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2893,7 +2869,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2905,10 +2881,10 @@
         <v>12</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -2923,7 +2899,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,10 +2917,10 @@
         <v>12</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2953,13 +2929,13 @@
         <v>7680</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2968,13 +2944,13 @@
         <v>7680</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,13 +2965,13 @@
         <v>500691</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>653</v>
@@ -3004,13 +2980,13 @@
         <v>669162</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M26" s="7">
         <v>1174</v>
@@ -3019,13 +2995,13 @@
         <v>1169853</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,13 +3069,13 @@
         <v>10392</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
@@ -3108,13 +3084,13 @@
         <v>12483</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M28" s="7">
         <v>22</v>
@@ -3123,13 +3099,13 @@
         <v>22874</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,13 +3120,13 @@
         <v>55303</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H29" s="7">
         <v>245</v>
@@ -3159,13 +3135,13 @@
         <v>251449</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M29" s="7">
         <v>299</v>
@@ -3174,13 +3150,13 @@
         <v>306752</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,16 +3168,16 @@
         <v>3151</v>
       </c>
       <c r="D30" s="7">
-        <v>3210849</v>
+        <v>3210848</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H30" s="7">
         <v>3039</v>
@@ -3210,13 +3186,13 @@
         <v>3115266</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>171</v>
+        <v>87</v>
       </c>
       <c r="M30" s="7">
         <v>6190</v>
@@ -3225,13 +3201,13 @@
         <v>6326115</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,7 +3219,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>40</v>
@@ -3287,7 +3263,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3309,7 +3285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D869B1F3-089F-4C7D-83C8-C1E8881EFEC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A89609-93BC-40F8-90B4-080AA0013C5D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3326,7 +3302,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3433,13 +3409,13 @@
         <v>4159</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3448,13 +3424,13 @@
         <v>4785</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -3463,13 +3439,13 @@
         <v>8944</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3460,13 @@
         <v>12002</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -3499,13 +3475,13 @@
         <v>37762</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
@@ -3514,13 +3490,13 @@
         <v>49764</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3511,13 @@
         <v>436010</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="H6" s="7">
         <v>377</v>
@@ -3550,13 +3526,13 @@
         <v>385478</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M6" s="7">
         <v>805</v>
@@ -3565,13 +3541,13 @@
         <v>821489</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3615,13 @@
         <v>937</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -3654,13 +3630,13 @@
         <v>17055</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -3669,13 +3645,13 @@
         <v>17992</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3666,13 @@
         <v>22973</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H9" s="7">
         <v>90</v>
@@ -3705,13 +3681,13 @@
         <v>92369</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M9" s="7">
         <v>111</v>
@@ -3720,13 +3696,13 @@
         <v>115342</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3717,13 @@
         <v>660352</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>465</v>
@@ -3756,13 +3732,13 @@
         <v>499863</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>1108</v>
@@ -3771,13 +3747,13 @@
         <v>1160216</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,10 +3824,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -3860,13 +3836,13 @@
         <v>4867</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -3878,10 +3854,10 @@
         <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,13 +3872,13 @@
         <v>19741</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -3911,13 +3887,13 @@
         <v>49584</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -3926,13 +3902,13 @@
         <v>69325</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,13 +3923,13 @@
         <v>661186</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>610</v>
@@ -3962,13 +3938,13 @@
         <v>652358</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M14" s="7">
         <v>1241</v>
@@ -3977,13 +3953,13 @@
         <v>1313544</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,7 +4015,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4051,13 +4027,13 @@
         <v>1134</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4066,13 +4042,13 @@
         <v>6260</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4081,13 +4057,13 @@
         <v>7394</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4078,13 @@
         <v>15860</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -4117,13 +4093,13 @@
         <v>24804</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -4132,13 +4108,13 @@
         <v>40664</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4129,13 @@
         <v>593286</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H18" s="7">
         <v>510</v>
@@ -4168,13 +4144,13 @@
         <v>582884</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M18" s="7">
         <v>1039</v>
@@ -4183,13 +4159,13 @@
         <v>1176170</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>265</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,7 +4221,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4257,13 +4233,13 @@
         <v>986</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>43</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>267</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4275,10 +4251,10 @@
         <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>266</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4287,13 +4263,13 @@
         <v>986</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>154</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4284,13 @@
         <v>3309</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -4323,13 +4299,13 @@
         <v>8527</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -4338,13 +4314,13 @@
         <v>11836</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>97</v>
+        <v>272</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4335,13 @@
         <v>425134</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H22" s="7">
         <v>396</v>
@@ -4374,13 +4350,13 @@
         <v>437305</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M22" s="7">
         <v>785</v>
@@ -4389,13 +4365,13 @@
         <v>862439</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,7 +4427,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4466,7 +4442,7 @@
         <v>12</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>73</v>
@@ -4481,10 +4457,10 @@
         <v>12</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4496,7 +4472,7 @@
         <v>12</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>15</v>
@@ -4514,13 +4490,13 @@
         <v>4199</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -4529,13 +4505,13 @@
         <v>17086</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>138</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -4544,10 +4520,10 @@
         <v>21285</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>290</v>
@@ -4580,13 +4556,13 @@
         <v>723813</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>1175</v>
@@ -4598,10 +4574,10 @@
         <v>296</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4645,13 @@
         <v>7216</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>43</v>
+        <v>298</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>298</v>
+        <v>183</v>
       </c>
       <c r="H28" s="7">
         <v>31</v>
@@ -4684,13 +4660,13 @@
         <v>32967</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M28" s="7">
         <v>38</v>
@@ -4699,13 +4675,13 @@
         <v>40183</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>99</v>
+        <v>302</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,13 +4696,13 @@
         <v>78084</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>304</v>
+        <v>49</v>
       </c>
       <c r="H29" s="7">
         <v>218</v>
@@ -4735,13 +4711,13 @@
         <v>230131</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M29" s="7">
         <v>291</v>
@@ -4750,13 +4726,13 @@
         <v>308216</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,13 +4747,13 @@
         <v>3328350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H30" s="7">
         <v>3036</v>
@@ -4786,13 +4762,13 @@
         <v>3281700</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M30" s="7">
         <v>6153</v>
@@ -4801,13 +4777,13 @@
         <v>6610051</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,7 +4839,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4885,7 +4861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B725913C-A622-49EA-BC9F-BBD03541573D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BC15D0-0594-47C1-8266-4BFEBA1FFE33}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4902,7 +4878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5009,13 +4985,13 @@
         <v>1059</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5024,13 +5000,13 @@
         <v>1862</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>138</v>
+        <v>266</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5039,13 +5015,13 @@
         <v>2921</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>22</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,13 +5036,13 @@
         <v>4033</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>324</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -5111,7 +5087,7 @@
         <v>411185</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>332</v>
@@ -5218,10 +5194,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -5230,10 +5206,10 @@
         <v>6707</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>340</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>341</v>
@@ -5245,13 +5221,13 @@
         <v>6707</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>99</v>
+        <v>302</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,13 +5242,13 @@
         <v>14770</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>344</v>
+        <v>124</v>
       </c>
       <c r="H9" s="7">
         <v>43</v>
@@ -5287,7 +5263,7 @@
         <v>346</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>347</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>58</v>
@@ -5296,10 +5272,10 @@
         <v>56354</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>349</v>
@@ -5320,10 +5296,10 @@
         <v>350</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H10" s="7">
         <v>529</v>
@@ -5332,13 +5308,13 @@
         <v>515254</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M10" s="7">
         <v>1079</v>
@@ -5347,13 +5323,13 @@
         <v>1088836</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,10 +5400,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>359</v>
+        <v>46</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -5436,13 +5412,13 @@
         <v>3676</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -5451,13 +5427,13 @@
         <v>3676</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5448,13 @@
         <v>3969</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -5487,13 +5463,13 @@
         <v>21366</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -5502,13 +5478,13 @@
         <v>25335</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>364</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5499,13 @@
         <v>662194</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H14" s="7">
         <v>636</v>
@@ -5538,13 +5514,13 @@
         <v>633127</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>367</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>1267</v>
@@ -5553,13 +5529,13 @@
         <v>1295321</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,7 +5591,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5630,10 +5606,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5642,13 +5618,13 @@
         <v>4122</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>249</v>
+        <v>372</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5657,13 +5633,13 @@
         <v>4122</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,13 +5654,13 @@
         <v>4209</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>377</v>
+        <v>288</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -5693,13 +5669,13 @@
         <v>15829</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -5708,13 +5684,13 @@
         <v>20038</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>382</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,13 +5705,13 @@
         <v>640756</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>385</v>
+        <v>296</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H18" s="7">
         <v>580</v>
@@ -5744,13 +5720,13 @@
         <v>624940</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M18" s="7">
         <v>1157</v>
@@ -5759,13 +5735,13 @@
         <v>1265696</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,7 +5797,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5836,7 +5812,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>70</v>
@@ -5848,13 +5824,13 @@
         <v>2323</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>266</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5863,13 +5839,13 @@
         <v>2323</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>394</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,7 +5863,7 @@
         <v>12</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>70</v>
@@ -5899,13 +5875,13 @@
         <v>5752</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>117</v>
+        <v>389</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -5914,13 +5890,13 @@
         <v>5752</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>154</v>
+        <v>391</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>266</v>
+        <v>43</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,10 +5911,10 @@
         <v>475092</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>40</v>
@@ -5950,13 +5926,13 @@
         <v>487771</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="M22" s="7">
         <v>847</v>
@@ -5965,13 +5941,13 @@
         <v>962863</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>402</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,7 +6003,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6045,7 +6021,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>397</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6057,10 +6033,10 @@
         <v>12</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -6069,13 +6045,13 @@
         <v>959</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>298</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6090,13 +6066,13 @@
         <v>2897</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>403</v>
+        <v>272</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6105,13 +6081,13 @@
         <v>1016</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -6120,13 +6096,13 @@
         <v>3913</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>394</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,13 +6117,13 @@
         <v>585056</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H26" s="7">
         <v>650</v>
@@ -6156,13 +6132,13 @@
         <v>772630</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>1271</v>
@@ -6171,13 +6147,13 @@
         <v>1357686</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>410</v>
+        <v>283</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6245,13 +6221,13 @@
         <v>2018</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -6260,13 +6236,13 @@
         <v>18690</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>156</v>
+        <v>407</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>373</v>
+        <v>157</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>376</v>
+        <v>42</v>
       </c>
       <c r="M28" s="7">
         <v>21</v>
@@ -6275,13 +6251,13 @@
         <v>20708</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>359</v>
+        <v>46</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>70</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6296,13 +6272,13 @@
         <v>29878</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>154</v>
+        <v>249</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H29" s="7">
         <v>106</v>
@@ -6311,13 +6287,13 @@
         <v>106067</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>416</v>
+        <v>343</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="M29" s="7">
         <v>136</v>
@@ -6326,13 +6302,13 @@
         <v>135945</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>418</v>
+        <v>330</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,13 +6323,13 @@
         <v>3347865</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>145</v>
+        <v>414</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="H30" s="7">
         <v>3201</v>
@@ -6362,13 +6338,13 @@
         <v>3407095</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>423</v>
+        <v>246</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="M30" s="7">
         <v>6387</v>
@@ -6377,13 +6353,13 @@
         <v>6754960</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6439,7 +6415,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q45B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q45B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE14FF20-5330-4264-9B3A-761E022B3636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B2F2F2F-BF58-4AAB-AAED-2E0D24E2CB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4EEF64F6-EEAC-4D2F-BC41-91E3296FC7C3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C24EB634-5AD3-46B8-885D-3455683F6334}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="432">
   <si>
     <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -79,1225 +79,1261 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>Si alguna vez</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>No nunca</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>Si alguna vez</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2016 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>No nunca</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,78%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
   </si>
   <si>
     <t>98,73%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2016 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
     <t>96,47%</t>
   </si>
   <si>
+    <t>95,86%</t>
+  </si>
+  <si>
     <t>97,02%</t>
   </si>
   <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF699DA9-9B22-48CB-BC44-909CA6C49030}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A503FAE-669D-46FD-BE95-1E3FA1891E32}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2057,10 +2093,10 @@
         <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -2072,7 +2108,7 @@
         <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>48</v>
@@ -2108,10 +2144,10 @@
         <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>127</v>
@@ -2120,13 +2156,13 @@
         <v>132296</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,13 +2177,13 @@
         <v>708659</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>480</v>
@@ -2156,13 +2192,13 @@
         <v>509382</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>1158</v>
@@ -2171,13 +2207,13 @@
         <v>1218041</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,7 +2269,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2245,13 +2281,13 @@
         <v>1986</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -2260,13 +2296,13 @@
         <v>3109</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -2275,13 +2311,13 @@
         <v>5094</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,13 +2332,13 @@
         <v>11336</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -2311,13 +2347,13 @@
         <v>44637</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -2326,13 +2362,13 @@
         <v>55973</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2383,13 @@
         <v>625347</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>614</v>
@@ -2362,13 +2398,13 @@
         <v>641999</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>1213</v>
@@ -2377,13 +2413,13 @@
         <v>1267345</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,7 +2475,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2454,10 +2490,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2466,13 +2502,13 @@
         <v>1953</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2505,10 +2541,10 @@
         <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -2517,13 +2553,13 @@
         <v>23570</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -2532,7 +2568,7 @@
         <v>29884</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>104</v>
@@ -2589,7 +2625,7 @@
         <v>113</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,7 +2681,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2660,10 +2696,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2675,10 +2711,10 @@
         <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2690,10 +2726,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2744,13 @@
         <v>6302</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -2723,13 +2759,13 @@
         <v>8753</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -2738,13 +2774,13 @@
         <v>15055</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="Q21" s="7" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2795,13 @@
         <v>380408</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H22" s="7">
         <v>388</v>
@@ -2774,13 +2810,13 @@
         <v>395233</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>774</v>
@@ -2789,13 +2825,13 @@
         <v>775641</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,7 +2887,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2869,7 +2905,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2881,10 +2917,10 @@
         <v>12</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -2893,13 +2929,13 @@
         <v>1775</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,10 +2953,10 @@
         <v>12</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2929,13 +2965,13 @@
         <v>7680</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2944,13 +2980,13 @@
         <v>7680</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,13 +3001,13 @@
         <v>500691</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>653</v>
@@ -2980,13 +3016,13 @@
         <v>669162</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M26" s="7">
         <v>1174</v>
@@ -2995,13 +3031,13 @@
         <v>1169853</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3105,13 @@
         <v>10392</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
@@ -3084,13 +3120,13 @@
         <v>12483</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M28" s="7">
         <v>22</v>
@@ -3099,13 +3135,13 @@
         <v>22874</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3156,13 @@
         <v>55303</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H29" s="7">
         <v>245</v>
@@ -3135,13 +3171,13 @@
         <v>251449</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M29" s="7">
         <v>299</v>
@@ -3150,13 +3186,13 @@
         <v>306752</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,16 +3204,16 @@
         <v>3151</v>
       </c>
       <c r="D30" s="7">
-        <v>3210848</v>
+        <v>3210849</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H30" s="7">
         <v>3039</v>
@@ -3186,19 +3222,19 @@
         <v>3115266</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M30" s="7">
         <v>6190</v>
       </c>
       <c r="N30" s="7">
-        <v>6326115</v>
+        <v>6326114</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>109</v>
@@ -3219,7 +3255,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>40</v>
@@ -3249,7 +3285,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -3285,7 +3321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A89609-93BC-40F8-90B4-080AA0013C5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EBA23F-BA35-4F2E-B69A-AFD6B9056EC3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3412,7 +3448,7 @@
         <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>181</v>
@@ -3427,10 +3463,10 @@
         <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -3439,13 +3475,13 @@
         <v>8944</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,13 +3496,13 @@
         <v>12002</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -3517,7 +3553,7 @@
         <v>196</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="H6" s="7">
         <v>377</v>
@@ -3526,13 +3562,13 @@
         <v>385478</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M6" s="7">
         <v>805</v>
@@ -3541,13 +3577,13 @@
         <v>821489</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3651,13 @@
         <v>937</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -3630,13 +3666,13 @@
         <v>17055</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -3645,13 +3681,13 @@
         <v>17992</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>207</v>
+        <v>95</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +3702,13 @@
         <v>22973</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H9" s="7">
         <v>90</v>
@@ -3681,13 +3717,13 @@
         <v>92369</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M9" s="7">
         <v>111</v>
@@ -3696,13 +3732,13 @@
         <v>115342</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,7 +3753,7 @@
         <v>660352</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>219</v>
@@ -3809,7 +3845,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3824,10 +3860,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -3839,10 +3875,10 @@
         <v>227</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -3854,10 +3890,10 @@
         <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,13 +3908,13 @@
         <v>19741</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -3887,13 +3923,13 @@
         <v>49584</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -3902,13 +3938,13 @@
         <v>69325</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,16 +3956,16 @@
         <v>631</v>
       </c>
       <c r="D14" s="7">
-        <v>661186</v>
+        <v>661187</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H14" s="7">
         <v>610</v>
@@ -3938,13 +3974,13 @@
         <v>652358</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
         <v>1241</v>
@@ -3953,7 +3989,7 @@
         <v>1313544</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>245</v>
@@ -3971,7 +4007,7 @@
         <v>650</v>
       </c>
       <c r="D15" s="7">
-        <v>680927</v>
+        <v>680928</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -4015,7 +4051,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4033,7 +4069,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>247</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4042,13 +4078,13 @@
         <v>6260</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4057,13 +4093,13 @@
         <v>7394</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4114,13 @@
         <v>15860</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -4093,13 +4129,13 @@
         <v>24804</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -4108,13 +4144,13 @@
         <v>40664</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,10 +4198,10 @@
         <v>265</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>107</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,7 +4257,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4233,13 +4269,13 @@
         <v>986</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>43</v>
+        <v>267</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4251,10 +4287,10 @@
         <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4263,13 +4299,13 @@
         <v>986</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4320,13 @@
         <v>3309</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>272</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -4299,13 +4335,13 @@
         <v>8527</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>247</v>
+        <v>73</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -4314,13 +4350,13 @@
         <v>11836</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4371,13 @@
         <v>425134</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H22" s="7">
         <v>396</v>
@@ -4350,13 +4386,13 @@
         <v>437305</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M22" s="7">
         <v>785</v>
@@ -4365,13 +4401,13 @@
         <v>862439</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,7 +4463,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4442,10 +4478,10 @@
         <v>12</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4457,10 +4493,10 @@
         <v>12</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4472,7 +4508,7 @@
         <v>12</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>15</v>
@@ -4490,13 +4526,13 @@
         <v>4199</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>96</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -4505,13 +4541,13 @@
         <v>17086</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>138</v>
+        <v>292</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>236</v>
+        <v>120</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -4520,13 +4556,13 @@
         <v>21285</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>288</v>
+        <v>46</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,13 +4577,13 @@
         <v>552381</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H26" s="7">
         <v>678</v>
@@ -4556,13 +4592,13 @@
         <v>723813</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>295</v>
+        <v>127</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>149</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>1175</v>
@@ -4571,13 +4607,13 @@
         <v>1276193</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4681,13 @@
         <v>7216</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>298</v>
+        <v>43</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>18</v>
+        <v>303</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>183</v>
+        <v>304</v>
       </c>
       <c r="H28" s="7">
         <v>31</v>
@@ -4660,13 +4696,13 @@
         <v>32967</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M28" s="7">
         <v>38</v>
@@ -4675,13 +4711,13 @@
         <v>40183</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>304</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,13 +4732,13 @@
         <v>78084</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>49</v>
+        <v>312</v>
       </c>
       <c r="H29" s="7">
         <v>218</v>
@@ -4711,13 +4747,13 @@
         <v>230131</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>291</v>
@@ -4726,13 +4762,13 @@
         <v>308216</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,13 +4783,13 @@
         <v>3328350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="H30" s="7">
         <v>3036</v>
@@ -4762,13 +4798,13 @@
         <v>3281700</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>316</v>
+        <v>200</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M30" s="7">
         <v>6153</v>
@@ -4777,13 +4813,13 @@
         <v>6610051</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,7 +4897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BC15D0-0594-47C1-8266-4BFEBA1FFE33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429ACC50-B84A-448F-A12B-0F23EEF41BAA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4878,7 +4914,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4985,13 +5021,13 @@
         <v>1059</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>301</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5000,13 +5036,13 @@
         <v>1862</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5015,13 +5051,13 @@
         <v>2921</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>47</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,13 +5072,13 @@
         <v>4033</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -5051,13 +5087,13 @@
         <v>20519</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -5066,13 +5102,13 @@
         <v>24553</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,10 +5126,10 @@
         <v>106</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H6" s="7">
         <v>381</v>
@@ -5102,13 +5138,13 @@
         <v>373373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M6" s="7">
         <v>766</v>
@@ -5117,13 +5153,13 @@
         <v>784559</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,10 +5230,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -5206,13 +5242,13 @@
         <v>6707</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -5221,13 +5257,13 @@
         <v>6707</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,13 +5278,13 @@
         <v>14770</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>124</v>
+        <v>349</v>
       </c>
       <c r="H9" s="7">
         <v>43</v>
@@ -5257,13 +5293,13 @@
         <v>41584</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>352</v>
       </c>
       <c r="M9" s="7">
         <v>58</v>
@@ -5272,13 +5308,13 @@
         <v>56354</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,13 +5329,13 @@
         <v>573583</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>171</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>132</v>
+        <v>356</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="H10" s="7">
         <v>529</v>
@@ -5308,13 +5344,13 @@
         <v>515254</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="M10" s="7">
         <v>1079</v>
@@ -5323,13 +5359,13 @@
         <v>1088836</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5385,7 +5421,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5400,10 +5436,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>46</v>
+        <v>364</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -5412,13 +5448,13 @@
         <v>3676</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>203</v>
+        <v>365</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>358</v>
+        <v>95</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -5427,13 +5463,13 @@
         <v>3676</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5484,13 @@
         <v>3969</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>16</v>
+        <v>368</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -5463,13 +5499,13 @@
         <v>21366</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -5478,13 +5514,13 @@
         <v>25335</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,13 +5535,13 @@
         <v>662194</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="H14" s="7">
         <v>636</v>
@@ -5514,13 +5550,13 @@
         <v>633127</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>1267</v>
@@ -5529,13 +5565,13 @@
         <v>1295321</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>112</v>
+        <v>379</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,7 +5627,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5606,10 +5642,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5618,13 +5654,13 @@
         <v>4122</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5633,13 +5669,13 @@
         <v>4122</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,13 +5690,13 @@
         <v>4209</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>288</v>
+        <v>385</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -5669,13 +5705,13 @@
         <v>15829</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -5684,13 +5720,13 @@
         <v>20038</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>389</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5741,13 @@
         <v>640756</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>296</v>
+        <v>392</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="H18" s="7">
         <v>580</v>
@@ -5720,13 +5756,13 @@
         <v>624940</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>383</v>
+        <v>282</v>
       </c>
       <c r="M18" s="7">
         <v>1157</v>
@@ -5735,13 +5771,13 @@
         <v>1265696</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,7 +5833,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5812,10 +5848,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5824,13 +5860,13 @@
         <v>2323</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5839,13 +5875,13 @@
         <v>2323</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>304</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,10 +5899,10 @@
         <v>12</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -5875,13 +5911,13 @@
         <v>5752</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>389</v>
+        <v>69</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -5890,13 +5926,13 @@
         <v>5752</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>391</v>
+        <v>155</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>43</v>
+        <v>267</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>72</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,10 +5947,10 @@
         <v>475092</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>40</v>
@@ -5926,13 +5962,13 @@
         <v>487771</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="M22" s="7">
         <v>847</v>
@@ -5941,13 +5977,13 @@
         <v>962863</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>395</v>
+        <v>287</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,7 +6039,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6021,7 +6057,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>397</v>
+        <v>205</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6033,10 +6069,10 @@
         <v>12</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -6045,13 +6081,13 @@
         <v>959</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>371</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6066,13 +6102,13 @@
         <v>2897</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>272</v>
+        <v>409</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6081,13 +6117,13 @@
         <v>1016</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>399</v>
+        <v>205</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -6096,13 +6132,13 @@
         <v>3913</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6117,13 +6153,13 @@
         <v>585056</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="H26" s="7">
         <v>650</v>
@@ -6132,13 +6168,13 @@
         <v>772630</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>1271</v>
@@ -6147,13 +6183,13 @@
         <v>1357686</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>283</v>
+        <v>415</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6221,13 +6257,13 @@
         <v>2018</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -6236,13 +6272,13 @@
         <v>18690</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>407</v>
+        <v>160</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>157</v>
+        <v>381</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="M28" s="7">
         <v>21</v>
@@ -6251,13 +6287,13 @@
         <v>20708</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>46</v>
+        <v>364</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>96</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6272,13 +6308,13 @@
         <v>29878</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>249</v>
+        <v>420</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>409</v>
+        <v>71</v>
       </c>
       <c r="H29" s="7">
         <v>106</v>
@@ -6287,13 +6323,13 @@
         <v>106067</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>410</v>
+        <v>76</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>343</v>
+        <v>421</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="M29" s="7">
         <v>136</v>
@@ -6302,13 +6338,13 @@
         <v>135945</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>330</v>
+        <v>423</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>163</v>
+        <v>424</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6323,13 +6359,13 @@
         <v>3347865</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>413</v>
+        <v>284</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H30" s="7">
         <v>3201</v>
@@ -6338,13 +6374,13 @@
         <v>3407095</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>246</v>
+        <v>428</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="M30" s="7">
         <v>6387</v>
@@ -6353,13 +6389,13 @@
         <v>6754960</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>417</v>
+        <v>197</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q45B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q45B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B2F2F2F-BF58-4AAB-AAED-2E0D24E2CB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC4CE022-9891-4046-A6AB-7789253FA17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C24EB634-5AD3-46B8-885D-3455683F6334}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{75F48CF7-62E0-43B3-99D2-EAB0E17203EF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="452">
   <si>
     <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí muchas veces</t>
@@ -163,7 +163,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,79%</t>
@@ -238,7 +238,7 @@
     <t>91,05%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,31%</t>
@@ -316,7 +316,7 @@
     <t>96,51%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0%</t>
@@ -382,7 +382,7 @@
     <t>95,65%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>0,49%</t>
@@ -445,756 +445,810 @@
     <t>98,9%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,24%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2016 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2016 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
     <t>1,61%</t>
   </si>
   <si>
@@ -1210,9 +1264,6 @@
     <t>0,91%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
     <t>99,35%</t>
   </si>
   <si>
@@ -1267,58 +1318,67 @@
     <t>99,64%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
   </si>
   <si>
     <t>96,47%</t>
@@ -1745,8 +1805,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A503FAE-669D-46FD-BE95-1E3FA1891E32}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EE48E1-733D-4084-9AB9-FFD7167C73F0}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2899,13 +2959,13 @@
         <v>1775</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2920,7 +2980,7 @@
         <v>93</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -2929,13 +2989,13 @@
         <v>1775</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,37 +3016,37 @@
         <v>93</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I25" s="7">
-        <v>7680</v>
+        <v>5589</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>7680</v>
+        <v>5589</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,10 +3055,10 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>521</v>
+        <v>301</v>
       </c>
       <c r="D26" s="7">
-        <v>500691</v>
+        <v>290808</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>146</v>
@@ -3010,34 +3070,34 @@
         <v>148</v>
       </c>
       <c r="H26" s="7">
-        <v>653</v>
+        <v>365</v>
       </c>
       <c r="I26" s="7">
-        <v>669162</v>
+        <v>337345</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>666</v>
+      </c>
+      <c r="N26" s="7">
+        <v>628153</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="M26" s="7">
-        <v>1174</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1169853</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,10 +3106,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3061,10 +3121,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -3076,10 +3136,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3093,55 +3153,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>10392</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H28" s="7">
-        <v>13</v>
-      </c>
-      <c r="I28" s="7">
-        <v>12483</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="M28" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>22874</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,49 +3210,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>55303</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="H29" s="7">
-        <v>245</v>
+        <v>2</v>
       </c>
       <c r="I29" s="7">
-        <v>251449</v>
+        <v>2091</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="M29" s="7">
-        <v>299</v>
+        <v>2</v>
       </c>
       <c r="N29" s="7">
-        <v>306752</v>
+        <v>2091</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,49 +3261,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>3151</v>
+        <v>220</v>
       </c>
       <c r="D30" s="7">
-        <v>3210849</v>
+        <v>209883</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="H30" s="7">
-        <v>3039</v>
+        <v>288</v>
       </c>
       <c r="I30" s="7">
-        <v>3115266</v>
+        <v>331817</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="M30" s="7">
-        <v>6190</v>
+        <v>508</v>
       </c>
       <c r="N30" s="7">
-        <v>6326114</v>
+        <v>541700</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,63 +3312,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>9</v>
+      </c>
+      <c r="D32" s="7">
+        <v>10392</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" s="7">
+        <v>13</v>
+      </c>
+      <c r="I32" s="7">
+        <v>12483</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M32" s="7">
+        <v>22</v>
+      </c>
+      <c r="N32" s="7">
+        <v>22874</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>54</v>
+      </c>
+      <c r="D33" s="7">
+        <v>55303</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H33" s="7">
+        <v>245</v>
+      </c>
+      <c r="I33" s="7">
+        <v>251449</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M33" s="7">
+        <v>299</v>
+      </c>
+      <c r="N33" s="7">
+        <v>306752</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>3151</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3210848</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34" s="7">
+        <v>3039</v>
+      </c>
+      <c r="I34" s="7">
+        <v>3115265</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M34" s="7">
+        <v>6190</v>
+      </c>
+      <c r="N34" s="7">
+        <v>6326115</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3214</v>
       </c>
-      <c r="D31" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3297</v>
       </c>
-      <c r="I31" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6511</v>
       </c>
-      <c r="N31" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>178</v>
+      <c r="N35" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3321,8 +3588,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EBA23F-BA35-4F2E-B69A-AFD6B9056EC3}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6EEBF0B-70C7-4C58-A0D4-DD11BE266D94}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3338,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3445,13 +3712,13 @@
         <v>4159</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3460,13 +3727,13 @@
         <v>4785</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>69</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -3475,13 +3742,13 @@
         <v>8944</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,10 +3763,10 @@
         <v>12002</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>78</v>
@@ -3511,13 +3778,13 @@
         <v>37762</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
@@ -3526,13 +3793,13 @@
         <v>49764</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3814,13 @@
         <v>436010</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="H6" s="7">
         <v>377</v>
@@ -3562,13 +3829,13 @@
         <v>385478</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="M6" s="7">
         <v>805</v>
@@ -3577,13 +3844,13 @@
         <v>821489</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3918,13 @@
         <v>937</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -3669,10 +3936,10 @@
         <v>99</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -3684,10 +3951,10 @@
         <v>95</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3969,13 @@
         <v>22973</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>211</v>
+        <v>137</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="H9" s="7">
         <v>90</v>
@@ -3717,13 +3984,13 @@
         <v>92369</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M9" s="7">
         <v>111</v>
@@ -3732,13 +3999,13 @@
         <v>115342</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,10 +4023,10 @@
         <v>91</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
         <v>465</v>
@@ -3768,13 +4035,13 @@
         <v>499863</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
         <v>1108</v>
@@ -3783,13 +4050,13 @@
         <v>1160216</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,7 +4130,7 @@
         <v>93</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -3872,10 +4139,10 @@
         <v>4867</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>16</v>
@@ -3890,10 +4157,10 @@
         <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +4175,13 @@
         <v>19741</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -3923,13 +4190,13 @@
         <v>49584</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -3938,13 +4205,13 @@
         <v>69325</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,16 +4223,16 @@
         <v>631</v>
       </c>
       <c r="D14" s="7">
-        <v>661187</v>
+        <v>661186</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="H14" s="7">
         <v>610</v>
@@ -3974,13 +4241,13 @@
         <v>652358</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="M14" s="7">
         <v>1241</v>
@@ -3992,10 +4259,10 @@
         <v>58</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,7 +4274,7 @@
         <v>650</v>
       </c>
       <c r="D15" s="7">
-        <v>680928</v>
+        <v>680927</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -4078,13 +4345,13 @@
         <v>6260</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4093,10 +4360,10 @@
         <v>7394</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>71</v>
@@ -4114,13 +4381,13 @@
         <v>15860</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -4129,13 +4396,13 @@
         <v>24804</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -4144,13 +4411,13 @@
         <v>40664</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4432,13 @@
         <v>593286</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="H18" s="7">
         <v>510</v>
@@ -4180,13 +4447,13 @@
         <v>582884</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="M18" s="7">
         <v>1039</v>
@@ -4195,13 +4462,13 @@
         <v>1176170</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4536,13 @@
         <v>986</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4290,7 +4557,7 @@
         <v>93</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4299,13 +4566,13 @@
         <v>986</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4587,13 @@
         <v>3309</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>117</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -4335,13 +4602,13 @@
         <v>8527</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>73</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -4350,13 +4617,13 @@
         <v>11836</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4638,13 @@
         <v>425134</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>396</v>
@@ -4386,13 +4653,13 @@
         <v>437305</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>785</v>
@@ -4401,13 +4668,13 @@
         <v>862439</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,7 +4748,7 @@
         <v>93</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4496,7 +4763,7 @@
         <v>93</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>288</v>
+        <v>142</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4511,7 +4778,7 @@
         <v>93</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,49 +4787,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>4199</v>
+        <v>2098</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>119</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H25" s="7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I25" s="7">
-        <v>17086</v>
+        <v>8344</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>120</v>
+        <v>298</v>
       </c>
       <c r="M25" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>21285</v>
+        <v>10442</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>46</v>
+        <v>197</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,49 +4838,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>497</v>
+        <v>279</v>
       </c>
       <c r="D26" s="7">
-        <v>552381</v>
+        <v>306671</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>295</v>
+        <v>128</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>297</v>
+        <v>148</v>
       </c>
       <c r="H26" s="7">
-        <v>678</v>
+        <v>337</v>
       </c>
       <c r="I26" s="7">
-        <v>723813</v>
+        <v>344758</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>127</v>
+        <v>303</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M26" s="7">
-        <v>1175</v>
+        <v>616</v>
       </c>
       <c r="N26" s="7">
-        <v>1276193</v>
+        <v>651430</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,10 +4889,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>501</v>
+        <v>281</v>
       </c>
       <c r="D27" s="7">
-        <v>556580</v>
+        <v>308769</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -4637,10 +4904,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>692</v>
+        <v>343</v>
       </c>
       <c r="I27" s="7">
-        <v>740899</v>
+        <v>353102</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -4652,10 +4919,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1193</v>
+        <v>624</v>
       </c>
       <c r="N27" s="7">
-        <v>1297478</v>
+        <v>661872</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -4669,55 +4936,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>7216</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>303</v>
+        <v>93</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>304</v>
+        <v>154</v>
       </c>
       <c r="H28" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>32967</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>305</v>
+        <v>12</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>306</v>
+        <v>93</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>307</v>
+        <v>14</v>
       </c>
       <c r="M28" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>40183</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>309</v>
+        <v>93</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,49 +4993,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>78084</v>
+        <v>2101</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H29" s="7">
+        <v>8</v>
+      </c>
+      <c r="I29" s="7">
+        <v>8742</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>10</v>
+      </c>
+      <c r="N29" s="7">
+        <v>10843</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="H29" s="7">
-        <v>218</v>
-      </c>
-      <c r="I29" s="7">
-        <v>230131</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="P29" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="M29" s="7">
-        <v>291</v>
-      </c>
-      <c r="N29" s="7">
-        <v>308216</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,49 +5044,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>3117</v>
+        <v>218</v>
       </c>
       <c r="D30" s="7">
-        <v>3328350</v>
+        <v>245709</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" s="7">
+        <v>341</v>
+      </c>
+      <c r="I30" s="7">
+        <v>379054</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="M30" s="7">
+        <v>559</v>
+      </c>
+      <c r="N30" s="7">
+        <v>624764</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H30" s="7">
-        <v>3036</v>
-      </c>
-      <c r="I30" s="7">
-        <v>3281700</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M30" s="7">
-        <v>6153</v>
-      </c>
-      <c r="N30" s="7">
-        <v>6610051</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>325</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,63 +5095,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>247810</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>349</v>
+      </c>
+      <c r="I31" s="7">
+        <v>387796</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>569</v>
+      </c>
+      <c r="N31" s="7">
+        <v>635607</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>7</v>
+      </c>
+      <c r="D32" s="7">
+        <v>7216</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H32" s="7">
+        <v>31</v>
+      </c>
+      <c r="I32" s="7">
+        <v>32967</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="M32" s="7">
+        <v>38</v>
+      </c>
+      <c r="N32" s="7">
+        <v>40183</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>73</v>
+      </c>
+      <c r="D33" s="7">
+        <v>78084</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H33" s="7">
+        <v>218</v>
+      </c>
+      <c r="I33" s="7">
+        <v>230131</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="M33" s="7">
+        <v>291</v>
+      </c>
+      <c r="N33" s="7">
+        <v>308216</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>3117</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3328350</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H34" s="7">
+        <v>3036</v>
+      </c>
+      <c r="I34" s="7">
+        <v>3281701</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="M34" s="7">
+        <v>6153</v>
+      </c>
+      <c r="N34" s="7">
+        <v>6610050</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3197</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3413651</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3285</v>
       </c>
-      <c r="I31" s="7">
-        <v>3544798</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3544799</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6482</v>
       </c>
-      <c r="N31" s="7">
-        <v>6958450</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>178</v>
+      <c r="N35" s="7">
+        <v>6958449</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4897,8 +5371,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429ACC50-B84A-448F-A12B-0F23EEF41BAA}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0DBAD6-F37E-4D60-ABA5-0A96C80F8A5B}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4914,7 +5388,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5021,13 +5495,13 @@
         <v>1059</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5036,13 +5510,13 @@
         <v>1862</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5054,7 +5528,7 @@
         <v>47</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>122</v>
@@ -5078,7 +5552,7 @@
         <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -5087,13 +5561,13 @@
         <v>20519</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -5102,13 +5576,13 @@
         <v>24553</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,10 +5600,10 @@
         <v>106</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="H6" s="7">
         <v>381</v>
@@ -5138,13 +5612,13 @@
         <v>373373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="M6" s="7">
         <v>766</v>
@@ -5153,13 +5627,13 @@
         <v>784559</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,7 +5707,7 @@
         <v>93</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -5242,13 +5716,13 @@
         <v>6707</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>138</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -5257,13 +5731,13 @@
         <v>6707</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,13 +5752,13 @@
         <v>14770</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="H9" s="7">
         <v>43</v>
@@ -5293,13 +5767,13 @@
         <v>41584</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="M9" s="7">
         <v>58</v>
@@ -5308,13 +5782,13 @@
         <v>56354</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5803,13 @@
         <v>573583</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>529</v>
@@ -5344,13 +5818,13 @@
         <v>515254</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>1079</v>
@@ -5359,13 +5833,13 @@
         <v>1088836</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,7 +5913,7 @@
         <v>93</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -5448,10 +5922,10 @@
         <v>3676</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>365</v>
+        <v>142</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>95</v>
@@ -5463,13 +5937,13 @@
         <v>3676</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>288</v>
+        <v>139</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5958,13 @@
         <v>3969</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -5499,13 +5973,13 @@
         <v>21366</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -5514,13 +5988,13 @@
         <v>25335</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +6009,13 @@
         <v>662194</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="H14" s="7">
         <v>636</v>
@@ -5550,13 +6024,13 @@
         <v>633127</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>394</v>
       </c>
       <c r="M14" s="7">
         <v>1267</v>
@@ -5565,13 +6039,13 @@
         <v>1295321</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,7 +6119,7 @@
         <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5654,13 +6128,13 @@
         <v>4122</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5669,13 +6143,13 @@
         <v>4122</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,13 +6164,13 @@
         <v>4209</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>143</v>
+        <v>402</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -5705,13 +6179,13 @@
         <v>15829</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -5720,13 +6194,13 @@
         <v>20038</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>390</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +6215,13 @@
         <v>640756</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="H18" s="7">
         <v>580</v>
@@ -5756,13 +6230,13 @@
         <v>624940</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="M18" s="7">
         <v>1157</v>
@@ -5771,13 +6245,13 @@
         <v>1265696</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,13 +6334,13 @@
         <v>2323</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5881,7 +6355,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,13 +6385,13 @@
         <v>5752</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>69</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -5926,13 +6400,13 @@
         <v>5752</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5950,7 +6424,7 @@
         <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>40</v>
@@ -5965,10 +6439,10 @@
         <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>847</v>
@@ -5977,13 +6451,13 @@
         <v>962863</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,13 +6525,13 @@
         <v>959</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>205</v>
+        <v>426</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6072,7 +6546,7 @@
         <v>93</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -6081,13 +6555,13 @@
         <v>959</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>366</v>
+        <v>213</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,13 +6576,13 @@
         <v>2897</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>409</v>
+        <v>295</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6117,13 +6591,13 @@
         <v>1016</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>410</v>
+        <v>235</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>205</v>
+        <v>427</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -6132,13 +6606,13 @@
         <v>3913</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>366</v>
+        <v>213</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>143</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,49 +6621,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>621</v>
+        <v>320</v>
       </c>
       <c r="D26" s="7">
-        <v>585056</v>
+        <v>328885</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>391</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="H26" s="7">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="I26" s="7">
-        <v>772630</v>
+        <v>373732</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>148</v>
       </c>
       <c r="M26" s="7">
-        <v>1271</v>
+        <v>670</v>
       </c>
       <c r="N26" s="7">
-        <v>1357686</v>
+        <v>702617</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,10 +6672,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>625</v>
+        <v>324</v>
       </c>
       <c r="D27" s="7">
-        <v>588912</v>
+        <v>332741</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -6213,10 +6687,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>651</v>
+        <v>351</v>
       </c>
       <c r="I27" s="7">
-        <v>773646</v>
+        <v>374748</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -6228,10 +6702,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1276</v>
+        <v>675</v>
       </c>
       <c r="N27" s="7">
-        <v>1362558</v>
+        <v>707489</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -6245,55 +6719,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>2018</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>417</v>
+        <v>12</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H28" s="7">
-        <v>19</v>
-      </c>
-      <c r="I28" s="7">
-        <v>18690</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="K28" s="7" t="s">
-        <v>381</v>
+        <v>93</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="M28" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>20708</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>364</v>
+        <v>12</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>418</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6302,49 +6776,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>29878</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>419</v>
+        <v>12</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>420</v>
+        <v>93</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>71</v>
+        <v>324</v>
       </c>
       <c r="H29" s="7">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>106067</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>421</v>
+        <v>93</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>422</v>
+        <v>324</v>
       </c>
       <c r="M29" s="7">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="N29" s="7">
-        <v>135945</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>423</v>
+        <v>12</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>424</v>
+        <v>93</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>425</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,49 +6827,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>3186</v>
+        <v>301</v>
       </c>
       <c r="D30" s="7">
-        <v>3347865</v>
+        <v>256171</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>284</v>
+        <v>148</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>414</v>
+        <v>40</v>
       </c>
       <c r="H30" s="7">
-        <v>3201</v>
+        <v>300</v>
       </c>
       <c r="I30" s="7">
-        <v>3407095</v>
+        <v>398898</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>427</v>
+        <v>148</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>429</v>
+        <v>40</v>
       </c>
       <c r="M30" s="7">
-        <v>6387</v>
+        <v>601</v>
       </c>
       <c r="N30" s="7">
-        <v>6754960</v>
+        <v>655068</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>431</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,63 +6878,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>301</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256171</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>300</v>
+      </c>
+      <c r="I31" s="7">
+        <v>398898</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>601</v>
+      </c>
+      <c r="N31" s="7">
+        <v>655068</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2018</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" s="7">
+        <v>19</v>
+      </c>
+      <c r="I32" s="7">
+        <v>18690</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M32" s="7">
+        <v>21</v>
+      </c>
+      <c r="N32" s="7">
+        <v>20708</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>30</v>
+      </c>
+      <c r="D33" s="7">
+        <v>29878</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="7">
+        <v>106</v>
+      </c>
+      <c r="I33" s="7">
+        <v>106067</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="M33" s="7">
+        <v>136</v>
+      </c>
+      <c r="N33" s="7">
+        <v>135945</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>3186</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3347865</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H34" s="7">
+        <v>3201</v>
+      </c>
+      <c r="I34" s="7">
+        <v>3407095</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="M34" s="7">
+        <v>6387</v>
+      </c>
+      <c r="N34" s="7">
+        <v>6754960</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3218</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3379761</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3326</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3531852</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6544</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6911613</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>178</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
